--- a/yxcfidc/data/meta/ct.xlsx
+++ b/yxcfidc/data/meta/ct.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12000"/>
   </bookViews>
   <sheets>
-    <sheet name="ct - 副本" sheetId="1" r:id="rId1"/>
+    <sheet name="ct" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>data/ct/CT_KT_2/files.html</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ct;CT_KT_2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -147,6 +143,10 @@
   </si>
   <si>
     <t>images/ct/CT_KT_2/P1040876.JPG;images/ct/CT_KT_2/P1040880.JPG</t>
+  </si>
+  <si>
+    <t>data/ct/CT_KT_1/files.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1135,7 +1135,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1164,7 +1164,7 @@
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1181,7 +1181,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1190,10 +1190,10 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/yxcfidc/data/meta/ct.xlsx
+++ b/yxcfidc/data/meta/ct.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>locId</t>
   </si>
@@ -146,6 +146,14 @@
   </si>
   <si>
     <t>data/ct/CT_KT_1/files.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/model/ct.html</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1064,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1075,12 +1083,13 @@
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="34.125" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="28.625" customWidth="1"/>
-    <col min="8" max="8" width="28.25" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="8" max="8" width="28.625" customWidth="1"/>
+    <col min="9" max="9" width="28.25" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,16 +1109,19 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1129,16 +1141,19 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1158,16 +1173,19 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1187,12 +1205,15 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/yxcfidc/data/meta/ct.xlsx
+++ b/yxcfidc/data/meta/ct.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="143">
   <si>
     <t>locId</t>
   </si>
@@ -119,41 +119,368 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>data/ct/CT_KT_1/files.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/ct/CT_KT_2/info.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct;CT_KT_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/ct/P1040856.JPG;images/ct/P1040887.JPG;images/ct/P1040904.JPG;images/ct/P1040905.JPG;images/ct/P1040899.JPG;images/ct/P1040872.JPG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/ct/CT_KT_1/P1040771.JPG;images/ct/CT_KT_1/P1040840.JPG;images/ct/CT_KT_1/P1040841.JPG;images/ct/CT_KT_1/P1040842.JPG;images/ct/CT_KT_1/P1040849.JPG;images/ct/CT_KT_1/P1040850.JPG;images/ct/CT_KT_1/P1040851.JPG;images/ct/CT_KT_1/P1040882.JPG;images/ct/CT_KT_1/P1040884.JPG;images/ct/CT_KT_1/P1040886.JPG;images/ct/CT_KT_1/P1040905.JPG</t>
+  </si>
+  <si>
+    <t>images/ct/CT_KT_2/P1040876.JPG;images/ct/CT_KT_2/P1040880.JPG</t>
+  </si>
+  <si>
+    <t>data/ct/CT_KT_1/files.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/model/ct.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/model/kt.html</t>
+  </si>
+  <si>
     <t>data/ct/CT_KT_1/info.html</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>data/ct/CT_KT_1/files.html</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>data/ct/CT_KT_2/info.html</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ct;CT_KT_2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/ct/P1040856.JPG;images/ct/P1040887.JPG;images/ct/P1040904.JPG;images/ct/P1040905.JPG;images/ct/P1040899.JPG;images/ct/P1040872.JPG</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/ct/CT_KT_1/P1040771.JPG;images/ct/CT_KT_1/P1040840.JPG;images/ct/CT_KT_1/P1040841.JPG;images/ct/CT_KT_1/P1040842.JPG;images/ct/CT_KT_1/P1040849.JPG;images/ct/CT_KT_1/P1040850.JPG;images/ct/CT_KT_1/P1040851.JPG;images/ct/CT_KT_1/P1040882.JPG;images/ct/CT_KT_1/P1040884.JPG;images/ct/CT_KT_1/P1040886.JPG;images/ct/CT_KT_1/P1040905.JPG</t>
-  </si>
-  <si>
-    <t>images/ct/CT_KT_2/P1040876.JPG;images/ct/CT_KT_2/P1040880.JPG</t>
-  </si>
-  <si>
-    <t>data/ct/CT_KT_1/files.html</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>data/model/ct.html</t>
+  </si>
+  <si>
+    <t>CT_G_A01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT_G_A02</t>
+  </si>
+  <si>
+    <t>CT_G_A03</t>
+  </si>
+  <si>
+    <t>CT_G_A04</t>
+  </si>
+  <si>
+    <t>CT_G_A05</t>
+  </si>
+  <si>
+    <t>CT_G_A06</t>
+  </si>
+  <si>
+    <t>CT_G_A07</t>
+  </si>
+  <si>
+    <t>CT_G_A08</t>
+  </si>
+  <si>
+    <t>CT_G_A09</t>
+  </si>
+  <si>
+    <t>CT_G_A10</t>
+  </si>
+  <si>
+    <t>CT_G_A11</t>
+  </si>
+  <si>
+    <t>CT_G_A12</t>
+  </si>
+  <si>
+    <t>CT_G_A13</t>
+  </si>
+  <si>
+    <t>CT_G_A14</t>
+  </si>
+  <si>
+    <t>CT_G_A15</t>
+  </si>
+  <si>
+    <t>CT_G_A16</t>
+  </si>
+  <si>
+    <t>CT_G_A17</t>
+  </si>
+  <si>
+    <t>CT_G_A18</t>
+  </si>
+  <si>
+    <t>CT_G_D07</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT_G_D08</t>
+  </si>
+  <si>
+    <t>CT_G_D09</t>
+  </si>
+  <si>
+    <t>机柜A01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>机柜A02</t>
+  </si>
+  <si>
+    <t>机柜A03</t>
+  </si>
+  <si>
+    <t>机柜A04</t>
+  </si>
+  <si>
+    <t>机柜A05</t>
+  </si>
+  <si>
+    <t>机柜A06</t>
+  </si>
+  <si>
+    <t>机柜A07</t>
+  </si>
+  <si>
+    <t>机柜A08</t>
+  </si>
+  <si>
+    <t>机柜A09</t>
+  </si>
+  <si>
+    <t>机柜A10</t>
+  </si>
+  <si>
+    <t>机柜A11</t>
+  </si>
+  <si>
+    <t>机柜A12</t>
+  </si>
+  <si>
+    <t>机柜A13</t>
+  </si>
+  <si>
+    <t>机柜A14</t>
+  </si>
+  <si>
+    <t>机柜A15</t>
+  </si>
+  <si>
+    <t>机柜A16</t>
+  </si>
+  <si>
+    <t>机柜A17</t>
+  </si>
+  <si>
+    <t>机柜A18</t>
+  </si>
+  <si>
+    <t>机柜D07</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>机柜D08</t>
+  </si>
+  <si>
+    <t>机柜D09</t>
+  </si>
+  <si>
+    <t>svg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A01.svg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A02.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A03.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A04.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A05.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A06.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A07.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A08.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A09.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A10.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A11.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A12.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A13.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A14.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A17.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/A18.svg</t>
+  </si>
+  <si>
+    <t>svgs/ct_jigui/jigui_blank.svg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct;CT_G_A01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct;CT_G_A02</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A03</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A04</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A05</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A06</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A07</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A08</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A09</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A10</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A11</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A12</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A13</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A14</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A17</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A18</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A15</t>
+  </si>
+  <si>
+    <t>ct;CT_G_A16</t>
+  </si>
+  <si>
+    <t>ct;CT_G_D07</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct;CT_G_D08</t>
+  </si>
+  <si>
+    <t>ct;CT_G_D09</t>
+  </si>
+  <si>
+    <t>data/model/jigui.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A01.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A02.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A03.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A04.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A05.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A06.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A07.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A08.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A09.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A10.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A11.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A12.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A13.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A14.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A17.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A18.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A15.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/A16.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/D07.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/D08.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/D09.html</t>
+  </si>
+  <si>
+    <t>data/ct_jigui_info/files.html</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1072,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1109,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1141,7 +1468,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -1150,7 +1477,7 @@
         <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1176,13 +1503,13 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1199,7 +1526,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1208,13 +1535,622 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/yxcfidc/data/meta/ct.xlsx
+++ b/yxcfidc/data/meta/ct.xlsx
@@ -415,72 +415,74 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>data/ct_jigui_info/A01.html</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A02.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A03.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A04.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A05.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A06.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A07.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A08.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A09.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A10.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A11.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A12.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A13.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A14.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A17.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A18.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A15.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/A16.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/D07.html</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/D08.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/D09.html</t>
-  </si>
-  <si>
-    <t>data/ct_jigui_info/files.html</t>
+    <t>data/ct/jigui_info/A01.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A02.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A03.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A04.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A05.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A06.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A07.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A08.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A09.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A10.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A11.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A12.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A13.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A14.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A15.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A16.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A17.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/A18.html</t>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/D07.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/D08.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/D09.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/ct/jigui_info/files.html</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1401,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1973,7 +1975,7 @@
         <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I19" t="s">
         <v>142</v>
@@ -2002,7 +2004,7 @@
         <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I20" t="s">
         <v>142</v>
@@ -2031,7 +2033,7 @@
         <v>120</v>
       </c>
       <c r="H21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I21" t="s">
         <v>142</v>
@@ -2060,7 +2062,7 @@
         <v>120</v>
       </c>
       <c r="H22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I22" t="s">
         <v>142</v>

--- a/yxcfidc/data/meta/ct.xlsx
+++ b/yxcfidc/data/meta/ct.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="159">
   <si>
     <t>locId</t>
   </si>
@@ -484,6 +484,63 @@
   <si>
     <t>data/ct/jigui_info/files.html</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT_UPS_1</t>
+  </si>
+  <si>
+    <t>1#UPS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct;CT_UPS_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/model/ups.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/ct/ups_info/ups1.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/ct/ups_info/files.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT_UPS_2</t>
+  </si>
+  <si>
+    <t>2#UPS</t>
+  </si>
+  <si>
+    <t>ct;CT_UPS_2</t>
+  </si>
+  <si>
+    <t>data/ct/ups_info/ups2.html</t>
+  </si>
+  <si>
+    <t>E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040858.JPG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\code\htdocs\yxcfidc\images\ct\ups_2\P1040859.JPG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040908.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040909.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040910.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040911.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040858.JPG</t>
+  </si>
+  <si>
+    <t>E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040908.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040909.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040910.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040911.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_2\P1040859.JPG</t>
   </si>
 </sst>
 </file>
@@ -1401,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I39" sqref="G31:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1894,7 +1951,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1923,7 +1980,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1952,7 +2009,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1981,7 +2038,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2010,7 +2067,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -2039,7 +2096,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2125,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -2097,7 +2154,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -2126,7 +2183,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2153,6 +2210,70 @@
       </c>
       <c r="I25" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" t="s">
+        <v>150</v>
+      </c>
+      <c r="J27" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/yxcfidc/data/meta/ct.xlsx
+++ b/yxcfidc/data/meta/ct.xlsx
@@ -529,18 +529,18 @@
     <t>data/ct/ups_info/ups2.html</t>
   </si>
   <si>
-    <t>E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040858.JPG</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\code\htdocs\yxcfidc\images\ct\ups_2\P1040859.JPG</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040908.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040909.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040910.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040911.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040858.JPG</t>
-  </si>
-  <si>
-    <t>E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040908.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040909.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040910.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_1\P1040911.JPG;E:\code\htdocs\yxcfidc\images\ct\ups_2\P1040859.JPG</t>
+    <t>images\ct\ups_1\P1040858.JPG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>images\ct\ups_2\P1040859.JPG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>images\ct\ups_1\P1040908.JPG;images\ct\ups_1\P1040909.JPG;images\ct\ups_1\P1040910.JPG;images\ct\ups_1\P1040911.JPG;images\ct\ups_1\P1040858.JPG</t>
+  </si>
+  <si>
+    <t>images\ct\ups_1\P1040908.JPG;images\ct\ups_1\P1040909.JPG;images\ct\ups_1\P1040910.JPG;images\ct\ups_1\P1040911.JPG;images\ct\ups_2\P1040859.JPG</t>
   </si>
 </sst>
 </file>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I39" sqref="G31:I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/yxcfidc/data/meta/ct.xlsx
+++ b/yxcfidc/data/meta/ct.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="175">
   <si>
     <t>locId</t>
   </si>
@@ -537,10 +537,67 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>images\ct\ups_1\P1040908.JPG;images\ct\ups_1\P1040909.JPG;images\ct\ups_1\P1040910.JPG;images\ct\ups_1\P1040911.JPG;images\ct\ups_2\P1040859.JPG</t>
+  </si>
+  <si>
+    <t>1#UPS 电池柜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT_UPS_1_BAT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct;CT_UPS_1_BAT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/model/ups_bat.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/ct/ups_bat_info/bat1.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>data/ct/ups_bat_info/files.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT_UPS_2_BAT</t>
+  </si>
+  <si>
+    <t>2#UPS 电池柜</t>
+  </si>
+  <si>
+    <t>ct;CT_UPS_2_BAT</t>
+  </si>
+  <si>
+    <t>data/ct/ups_bat_info/bat2.html</t>
+  </si>
+  <si>
+    <t>images\ct\ups_1_bat\P1040869.JPG</t>
+  </si>
+  <si>
+    <t>images\ct\ups_2_bat\P1040870.JPG</t>
+  </si>
+  <si>
     <t>images\ct\ups_1\P1040908.JPG;images\ct\ups_1\P1040909.JPG;images\ct\ups_1\P1040910.JPG;images\ct\ups_1\P1040911.JPG;images\ct\ups_1\P1040858.JPG</t>
-  </si>
-  <si>
-    <t>images\ct\ups_1\P1040908.JPG;images\ct\ups_1\P1040909.JPG;images\ct\ups_1\P1040910.JPG;images\ct\ups_1\P1040911.JPG;images\ct\ups_2\P1040859.JPG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>images\ct\ups_1_bat\P1040868.JPG;images\ct\ups_1_bat\P1040869.JPG;images\ct\ups_1_bat\P1040912.JPG;images\ct\ups_1_bat\P1040913.JPG;images\ct\ups_1_bat\P1040914.JPG</t>
+  </si>
+  <si>
+    <t>images\ct\ups_2_bat\P1040870.JPG;images\ct\ups_1_bat\P1040912.JPG;images\ct\ups_1_bat\P1040913.JPG;images\ct\ups_1_bat\P1040914.JPG</t>
   </si>
 </sst>
 </file>
@@ -1458,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2241,7 +2298,7 @@
         <v>150</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -2273,7 +2330,71 @@
         <v>150</v>
       </c>
       <c r="J27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
         <v>158</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" t="s">
+        <v>165</v>
+      </c>
+      <c r="J29" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
